--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-09-29.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-09-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="251">
   <si>
     <t>League</t>
   </si>
@@ -229,30 +229,30 @@
     <t>French Ligue 2</t>
   </si>
   <si>
+    <t>Spanish La Liga</t>
+  </si>
+  <si>
+    <t>Portuguese Primeira Liga</t>
+  </si>
+  <si>
+    <t>Uruguayan Primera Division</t>
+  </si>
+  <si>
+    <t>Brazilian Serie B</t>
+  </si>
+  <si>
     <t>Bolivian Liga de Futbol Profesional</t>
   </si>
   <si>
     <t>English Premier League</t>
   </si>
   <si>
-    <t>Portuguese Primeira Liga</t>
-  </si>
-  <si>
-    <t>Spanish La Liga</t>
-  </si>
-  <si>
-    <t>Uruguayan Primera Division</t>
-  </si>
-  <si>
     <t>Icelandic Urvalsdeild</t>
   </si>
   <si>
     <t>Paraguayan Primera Division</t>
   </si>
   <si>
-    <t>Brazilian Serie B</t>
-  </si>
-  <si>
     <t>Colombian Primera B</t>
   </si>
   <si>
@@ -328,9 +328,6 @@
     <t>20:00:01</t>
   </si>
   <si>
-    <t>21:30:00</t>
-  </si>
-  <si>
     <t>22:10:00</t>
   </si>
   <si>
@@ -505,21 +502,24 @@
     <t>Genoa</t>
   </si>
   <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Racing Club (Uru)</t>
+  </si>
+  <si>
+    <t>Amazonas FC</t>
+  </si>
+  <si>
     <t>The Strongest</t>
   </si>
   <si>
     <t>Everton</t>
   </si>
   <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Racing Club (Uru)</t>
-  </si>
-  <si>
     <t>Stjarnan</t>
   </si>
   <si>
@@ -547,9 +547,6 @@
     <t>Sao Paulo</t>
   </si>
   <si>
-    <t>Amazonas FC</t>
-  </si>
-  <si>
     <t>Atletico FC Cali</t>
   </si>
   <si>
@@ -724,21 +721,24 @@
     <t>Lazio</t>
   </si>
   <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Progreso</t>
+  </si>
+  <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
     <t>Oriente Petrolero</t>
   </si>
   <si>
     <t>West Ham</t>
   </si>
   <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Oviedo</t>
-  </si>
-  <si>
-    <t>Progreso</t>
-  </si>
-  <si>
     <t>Vikingur Reykjavik</t>
   </si>
   <si>
@@ -764,9 +764,6 @@
   </si>
   <si>
     <t>Ceara SC Fortaleza</t>
-  </si>
-  <si>
-    <t>Chapecoense</t>
   </si>
   <si>
     <t>Cucuta Deportivo</t>
@@ -1269,10 +1266,10 @@
         <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2">
         <v>4.3</v>
@@ -1394,106 +1391,106 @@
         <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3">
-        <v>1.65</v>
+        <v>2.12</v>
       </c>
       <c r="G3">
-        <v>1.67</v>
+        <v>2.14</v>
       </c>
       <c r="H3">
         <v>6.2</v>
       </c>
       <c r="I3">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J3">
-        <v>4.2</v>
+        <v>2.58</v>
       </c>
       <c r="K3">
-        <v>4.3</v>
+        <v>2.68</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.08</v>
+        <v>1.39</v>
       </c>
       <c r="N3">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
-        <v>1.42</v>
+        <v>2.94</v>
       </c>
       <c r="P3">
-        <v>1.71</v>
+        <v>1.13</v>
       </c>
       <c r="Q3">
-        <v>2.34</v>
+        <v>7.8</v>
       </c>
       <c r="R3">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="S3">
-        <v>4.6</v>
+        <v>26</v>
       </c>
       <c r="T3">
-        <v>2.34</v>
+        <v>5.6</v>
       </c>
       <c r="U3">
-        <v>1.67</v>
+        <v>1.18</v>
       </c>
       <c r="V3">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W3">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="X3">
-        <v>15.5</v>
+        <v>4.1</v>
       </c>
       <c r="Y3">
-        <v>330</v>
+        <v>9.4</v>
       </c>
       <c r="Z3">
+        <v>48</v>
+      </c>
+      <c r="AA3">
+        <v>420</v>
+      </c>
+      <c r="AB3">
+        <v>4</v>
+      </c>
+      <c r="AC3">
+        <v>11.5</v>
+      </c>
+      <c r="AD3">
         <v>75</v>
       </c>
-      <c r="AA3">
-        <v>1000</v>
-      </c>
-      <c r="AB3">
-        <v>7.8</v>
-      </c>
-      <c r="AC3">
-        <v>9.4</v>
-      </c>
-      <c r="AD3">
-        <v>980</v>
-      </c>
       <c r="AE3">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AF3">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AG3">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AH3">
-        <v>990</v>
+        <v>170</v>
       </c>
       <c r="AI3">
         <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AK3">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL3">
         <v>1000</v>
@@ -1502,7 +1499,7 @@
         <v>1000</v>
       </c>
       <c r="AN3">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO3">
         <v>1000</v>
@@ -1519,28 +1516,28 @@
         <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F4">
-        <v>7.2</v>
+        <v>3.35</v>
       </c>
       <c r="G4">
-        <v>8.6</v>
+        <v>3.5</v>
       </c>
       <c r="H4">
-        <v>1.57</v>
+        <v>3.2</v>
       </c>
       <c r="I4">
-        <v>1.64</v>
+        <v>3.35</v>
       </c>
       <c r="J4">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="K4">
-        <v>4.2</v>
+        <v>2.52</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1549,88 +1546,88 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.91</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1.34</v>
       </c>
       <c r="R4">
-        <v>1.3</v>
+        <v>1.61</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>2.56</v>
       </c>
       <c r="T4">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>2.56</v>
+        <v>1.42</v>
       </c>
       <c r="W4">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="X4">
         <v>1000</v>
       </c>
       <c r="Y4">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="Z4">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA4">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB4">
         <v>1000</v>
       </c>
       <c r="AC4">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="AD4">
-        <v>990</v>
+        <v>6.2</v>
       </c>
       <c r="AE4">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AF4">
         <v>1000</v>
       </c>
       <c r="AG4">
-        <v>28</v>
+        <v>6.4</v>
       </c>
       <c r="AH4">
-        <v>990</v>
+        <v>8</v>
       </c>
       <c r="AI4">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AJ4">
         <v>1000</v>
       </c>
       <c r="AK4">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AL4">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM4">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN4">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AO4">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1644,118 +1641,118 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F5">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="G5">
+        <v>3.25</v>
+      </c>
+      <c r="H5">
+        <v>4.2</v>
+      </c>
+      <c r="I5">
+        <v>4.4</v>
+      </c>
+      <c r="J5">
+        <v>2.16</v>
+      </c>
+      <c r="K5">
+        <v>2.24</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1.5</v>
+      </c>
+      <c r="N5">
+        <v>1.4</v>
+      </c>
+      <c r="O5">
+        <v>3.3</v>
+      </c>
+      <c r="P5">
+        <v>1.1</v>
+      </c>
+      <c r="Q5">
+        <v>10.5</v>
+      </c>
+      <c r="R5">
+        <v>1.02</v>
+      </c>
+      <c r="S5">
+        <v>44</v>
+      </c>
+      <c r="T5">
+        <v>4.8</v>
+      </c>
+      <c r="U5">
+        <v>1.2</v>
+      </c>
+      <c r="V5">
+        <v>1.3</v>
+      </c>
+      <c r="W5">
+        <v>1.44</v>
+      </c>
+      <c r="X5">
         <v>2.98</v>
       </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>4.3</v>
-      </c>
-      <c r="J5">
-        <v>2.34</v>
-      </c>
-      <c r="K5">
-        <v>2.4</v>
-      </c>
-      <c r="L5">
-        <v>4.4</v>
-      </c>
-      <c r="M5">
-        <v>1.38</v>
-      </c>
-      <c r="N5">
-        <v>1.59</v>
-      </c>
-      <c r="O5">
-        <v>2.56</v>
-      </c>
-      <c r="P5">
-        <v>1.16</v>
-      </c>
-      <c r="Q5">
+      <c r="Y5">
         <v>6.8</v>
       </c>
-      <c r="R5">
-        <v>1.04</v>
-      </c>
-      <c r="S5">
+      <c r="Z5">
+        <v>29</v>
+      </c>
+      <c r="AA5">
+        <v>210</v>
+      </c>
+      <c r="AB5">
+        <v>5.6</v>
+      </c>
+      <c r="AC5">
+        <v>10.5</v>
+      </c>
+      <c r="AD5">
+        <v>50</v>
+      </c>
+      <c r="AE5">
+        <v>350</v>
+      </c>
+      <c r="AF5">
         <v>22</v>
       </c>
-      <c r="T5">
-        <v>3.7</v>
-      </c>
-      <c r="U5">
-        <v>1.29</v>
-      </c>
-      <c r="V5">
-        <v>1.31</v>
-      </c>
-      <c r="W5">
-        <v>1.47</v>
-      </c>
-      <c r="X5">
-        <v>3.75</v>
-      </c>
-      <c r="Y5">
-        <v>7.6</v>
-      </c>
-      <c r="Z5">
-        <v>32</v>
-      </c>
-      <c r="AA5">
-        <v>160</v>
-      </c>
-      <c r="AB5">
-        <v>5.5</v>
-      </c>
-      <c r="AC5">
-        <v>8</v>
-      </c>
-      <c r="AD5">
-        <v>36</v>
-      </c>
-      <c r="AE5">
-        <v>220</v>
-      </c>
-      <c r="AF5">
-        <v>19</v>
-      </c>
       <c r="AG5">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AH5">
         <v>990</v>
       </c>
       <c r="AI5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AK5">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="AL5">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AM5">
         <v>1000</v>
       </c>
       <c r="AN5">
-        <v>210</v>
+        <v>530</v>
       </c>
       <c r="AO5">
-        <v>450</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1769,16 +1766,16 @@
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="G6">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H6">
         <v>1.79</v>
@@ -1787,52 +1784,52 @@
         <v>1.82</v>
       </c>
       <c r="J6">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L6">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="M6">
         <v>1.17</v>
       </c>
       <c r="N6">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="O6">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="P6">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q6">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R6">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S6">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="T6">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="U6">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="V6">
         <v>2.2</v>
       </c>
       <c r="W6">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X6">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y6">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z6">
         <v>8.4</v>
@@ -1841,31 +1838,31 @@
         <v>19</v>
       </c>
       <c r="AB6">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC6">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE6">
         <v>32</v>
       </c>
       <c r="AF6">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AH6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AJ6">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AK6">
         <v>220</v>
@@ -1874,13 +1871,13 @@
         <v>280</v>
       </c>
       <c r="AM6">
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="AN6">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="AO6">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1894,118 +1891,118 @@
         <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H7">
         <v>2.3</v>
       </c>
       <c r="I7">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J7">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K7">
         <v>3.1</v>
       </c>
       <c r="L7">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="M7">
         <v>1.16</v>
       </c>
       <c r="N7">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="O7">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="P7">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q7">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S7">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="T7">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="U7">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="V7">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="W7">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X7">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y7">
         <v>6.8</v>
       </c>
       <c r="Z7">
+        <v>12</v>
+      </c>
+      <c r="AA7">
+        <v>32</v>
+      </c>
+      <c r="AB7">
+        <v>10.5</v>
+      </c>
+      <c r="AC7">
+        <v>7.2</v>
+      </c>
+      <c r="AD7">
         <v>12.5</v>
       </c>
-      <c r="AA7">
-        <v>42</v>
-      </c>
-      <c r="AB7">
-        <v>10</v>
-      </c>
-      <c r="AC7">
-        <v>7.4</v>
-      </c>
-      <c r="AD7">
-        <v>13.5</v>
-      </c>
       <c r="AE7">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG7">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI7">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AJ7">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AK7">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AL7">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="AM7">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="AN7">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AO7">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -2019,118 +2016,118 @@
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F8">
-        <v>4.1</v>
+        <v>1.74</v>
       </c>
       <c r="G8">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H8">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="I8">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="J8">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L8">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M8">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O8">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P8">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q8">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="R8">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="S8">
         <v>3.7</v>
       </c>
       <c r="T8">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="U8">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="V8">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X8">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y8">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z8">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA8">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB8">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC8">
-        <v>8.6</v>
+        <v>990</v>
       </c>
       <c r="AD8">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="AE8">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF8">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG8">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AH8">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AI8">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK8">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL8">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM8">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN8">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO8">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -2144,25 +2141,25 @@
         <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="G9">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H9">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="I9">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="J9">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9">
         <v>3.5</v>
@@ -2174,40 +2171,40 @@
         <v>1.08</v>
       </c>
       <c r="N9">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O9">
         <v>1.37</v>
       </c>
       <c r="P9">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q9">
         <v>2.1</v>
       </c>
       <c r="R9">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S9">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T9">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U9">
         <v>2.04</v>
       </c>
       <c r="V9">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="X9">
         <v>13</v>
       </c>
       <c r="Y9">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z9">
         <v>12</v>
@@ -2228,7 +2225,7 @@
         <v>24</v>
       </c>
       <c r="AF9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG9">
         <v>17</v>
@@ -2237,25 +2234,25 @@
         <v>19</v>
       </c>
       <c r="AI9">
+        <v>110</v>
+      </c>
+      <c r="AJ9">
+        <v>95</v>
+      </c>
+      <c r="AK9">
         <v>60</v>
       </c>
-      <c r="AJ9">
-        <v>100</v>
-      </c>
-      <c r="AK9">
-        <v>55</v>
-      </c>
       <c r="AL9">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM9">
         <v>120</v>
       </c>
       <c r="AN9">
-        <v>65</v>
+        <v>600</v>
       </c>
       <c r="AO9">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -2269,19 +2266,19 @@
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F10">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G10">
         <v>3.2</v>
       </c>
       <c r="H10">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I10">
         <v>2.52</v>
@@ -2290,7 +2287,7 @@
         <v>3.65</v>
       </c>
       <c r="K10">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L10">
         <v>1.32</v>
@@ -2305,25 +2302,25 @@
         <v>1.21</v>
       </c>
       <c r="P10">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q10">
         <v>1.66</v>
       </c>
       <c r="R10">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S10">
         <v>2.62</v>
       </c>
       <c r="T10">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="U10">
         <v>2.5</v>
       </c>
       <c r="V10">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W10">
         <v>1.45</v>
@@ -2332,7 +2329,7 @@
         <v>21</v>
       </c>
       <c r="Y10">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z10">
         <v>18</v>
@@ -2353,7 +2350,7 @@
         <v>23</v>
       </c>
       <c r="AF10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG10">
         <v>14.5</v>
@@ -2365,16 +2362,16 @@
         <v>32</v>
       </c>
       <c r="AJ10">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AK10">
         <v>32</v>
       </c>
       <c r="AL10">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AM10">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AN10">
         <v>21</v>
@@ -2394,13 +2391,13 @@
         <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G11">
         <v>2.12</v>
@@ -2412,7 +2409,7 @@
         <v>4.6</v>
       </c>
       <c r="J11">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K11">
         <v>3.45</v>
@@ -2430,13 +2427,13 @@
         <v>1.42</v>
       </c>
       <c r="P11">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q11">
         <v>2.3</v>
       </c>
       <c r="R11">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S11">
         <v>4.4</v>
@@ -2445,16 +2442,16 @@
         <v>2.04</v>
       </c>
       <c r="U11">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="V11">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W11">
         <v>1.9</v>
       </c>
       <c r="X11">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y11">
         <v>13.5</v>
@@ -2463,7 +2460,7 @@
         <v>32</v>
       </c>
       <c r="AA11">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB11">
         <v>8</v>
@@ -2475,7 +2472,7 @@
         <v>18.5</v>
       </c>
       <c r="AE11">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="AF11">
         <v>11.5</v>
@@ -2487,7 +2484,7 @@
         <v>22</v>
       </c>
       <c r="AI11">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AJ11">
         <v>25</v>
@@ -2505,7 +2502,7 @@
         <v>20</v>
       </c>
       <c r="AO11">
-        <v>85</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2519,67 +2516,67 @@
         <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F12">
         <v>4.3</v>
       </c>
       <c r="G12">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H12">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I12">
         <v>2.24</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
         <v>1.58</v>
       </c>
       <c r="M12">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N12">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O12">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="P12">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q12">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="R12">
         <v>1.21</v>
       </c>
       <c r="S12">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T12">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U12">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W12">
         <v>1.28</v>
       </c>
       <c r="X12">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="Y12">
         <v>7.8</v>
@@ -2588,7 +2585,7 @@
         <v>12.5</v>
       </c>
       <c r="AA12">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB12">
         <v>12.5</v>
@@ -2600,25 +2597,25 @@
         <v>12.5</v>
       </c>
       <c r="AE12">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF12">
         <v>32</v>
       </c>
       <c r="AG12">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI12">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="AJ12">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AK12">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="AL12">
         <v>350</v>
@@ -2630,7 +2627,7 @@
         <v>1000</v>
       </c>
       <c r="AO12">
-        <v>55</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2644,85 +2641,85 @@
         <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="H13">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="I13">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="J13">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="L13">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M13">
         <v>1.03</v>
       </c>
       <c r="N13">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="O13">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P13">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="Q13">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="R13">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="S13">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="T13">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="U13">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="V13">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="W13">
         <v>1.09</v>
       </c>
       <c r="X13">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="Y13">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Z13">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA13">
         <v>12</v>
       </c>
       <c r="AB13">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AC13">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE13">
         <v>14</v>
@@ -2734,10 +2731,10 @@
         <v>42</v>
       </c>
       <c r="AH13">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AI13">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ13">
         <v>1000</v>
@@ -2746,16 +2743,16 @@
         <v>460</v>
       </c>
       <c r="AL13">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="AM13">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="AN13">
         <v>1000</v>
       </c>
       <c r="AO13">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2769,25 +2766,25 @@
         <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F14">
         <v>1.59</v>
       </c>
       <c r="G14">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H14">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I14">
         <v>9.800000000000001</v>
       </c>
       <c r="J14">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K14">
         <v>3.85</v>
@@ -2814,10 +2811,10 @@
         <v>1.19</v>
       </c>
       <c r="S14">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="T14">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="U14">
         <v>1.53</v>
@@ -2829,37 +2826,37 @@
         <v>2.52</v>
       </c>
       <c r="X14">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Z14">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA14">
         <v>1000</v>
       </c>
       <c r="AB14">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AC14">
         <v>9.199999999999999</v>
       </c>
       <c r="AD14">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="AE14">
         <v>1000</v>
       </c>
       <c r="AF14">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AG14">
         <v>11.5</v>
       </c>
       <c r="AH14">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AI14">
         <v>1000</v>
@@ -2877,7 +2874,7 @@
         <v>1000</v>
       </c>
       <c r="AN14">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AO14">
         <v>1000</v>
@@ -2894,22 +2891,22 @@
         <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F15">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G15">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>2.08</v>
       </c>
       <c r="I15">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J15">
         <v>3.45</v>
@@ -2942,10 +2939,10 @@
         <v>3.75</v>
       </c>
       <c r="T15">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V15">
         <v>1.81</v>
@@ -2954,37 +2951,37 @@
         <v>1.33</v>
       </c>
       <c r="X15">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Y15">
         <v>9.4</v>
       </c>
       <c r="Z15">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AA15">
-        <v>34</v>
+        <v>900</v>
       </c>
       <c r="AB15">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="AC15">
         <v>8.4</v>
       </c>
       <c r="AD15">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="AE15">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AF15">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AG15">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH15">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI15">
         <v>150</v>
@@ -2996,16 +2993,16 @@
         <v>190</v>
       </c>
       <c r="AL15">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AM15">
         <v>580</v>
       </c>
       <c r="AN15">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AO15">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -3019,10 +3016,10 @@
         <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F16">
         <v>2.24</v>
@@ -3040,7 +3037,7 @@
         <v>4.1</v>
       </c>
       <c r="K16">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L16">
         <v>1.26</v>
@@ -3073,22 +3070,22 @@
         <v>3</v>
       </c>
       <c r="V16">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W16">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X16">
         <v>29</v>
       </c>
       <c r="Y16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z16">
         <v>28</v>
       </c>
       <c r="AA16">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB16">
         <v>19</v>
@@ -3144,13 +3141,13 @@
         <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F17">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G17">
         <v>3.5</v>
@@ -3159,7 +3156,7 @@
         <v>2.24</v>
       </c>
       <c r="I17">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J17">
         <v>3.55</v>
@@ -3192,10 +3189,10 @@
         <v>3.25</v>
       </c>
       <c r="T17">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U17">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V17">
         <v>1.71</v>
@@ -3252,7 +3249,7 @@
         <v>580</v>
       </c>
       <c r="AN17">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO17">
         <v>18</v>
@@ -3269,25 +3266,25 @@
         <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F18">
+        <v>2.16</v>
+      </c>
+      <c r="G18">
         <v>2.2</v>
       </c>
-      <c r="G18">
-        <v>2.26</v>
-      </c>
       <c r="H18">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I18">
         <v>4</v>
       </c>
       <c r="J18">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K18">
         <v>3.55</v>
@@ -3305,7 +3302,7 @@
         <v>1.36</v>
       </c>
       <c r="P18">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q18">
         <v>2.1</v>
@@ -3314,7 +3311,7 @@
         <v>1.34</v>
       </c>
       <c r="S18">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T18">
         <v>1.85</v>
@@ -3326,61 +3323,61 @@
         <v>1.33</v>
       </c>
       <c r="W18">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X18">
+        <v>13</v>
+      </c>
+      <c r="Y18">
         <v>14</v>
       </c>
-      <c r="Y18">
-        <v>14.5</v>
-      </c>
       <c r="Z18">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="AA18">
-        <v>530</v>
+        <v>80</v>
       </c>
       <c r="AB18">
         <v>9.4</v>
       </c>
       <c r="AC18">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD18">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE18">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AF18">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG18">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH18">
         <v>17.5</v>
       </c>
       <c r="AI18">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AJ18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK18">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AL18">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AM18">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AN18">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO18">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -3394,16 +3391,16 @@
         <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F19">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G19">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H19">
         <v>3.45</v>
@@ -3430,10 +3427,10 @@
         <v>1.46</v>
       </c>
       <c r="P19">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q19">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R19">
         <v>1.26</v>
@@ -3442,10 +3439,10 @@
         <v>4.7</v>
       </c>
       <c r="T19">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V19">
         <v>1.4</v>
@@ -3484,13 +3481,13 @@
         <v>12</v>
       </c>
       <c r="AH19">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI19">
         <v>65</v>
       </c>
       <c r="AJ19">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK19">
         <v>32</v>
@@ -3519,19 +3516,19 @@
         <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F20">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G20">
         <v>2.64</v>
       </c>
       <c r="H20">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I20">
         <v>3.5</v>
@@ -3549,22 +3546,22 @@
         <v>1.11</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O20">
         <v>1.46</v>
       </c>
       <c r="P20">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q20">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="R20">
         <v>1.24</v>
       </c>
       <c r="S20">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T20">
         <v>1.96</v>
@@ -3600,7 +3597,7 @@
         <v>29</v>
       </c>
       <c r="AE20">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AF20">
         <v>36</v>
@@ -3644,61 +3641,61 @@
         <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F21">
+        <v>11.5</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>1.2</v>
+      </c>
+      <c r="I21">
+        <v>1.21</v>
+      </c>
+      <c r="J21">
+        <v>8.4</v>
+      </c>
+      <c r="K21">
         <v>11</v>
       </c>
-      <c r="G21">
-        <v>16</v>
-      </c>
-      <c r="H21">
-        <v>1.19</v>
-      </c>
-      <c r="I21">
-        <v>1.22</v>
-      </c>
-      <c r="J21">
-        <v>8</v>
-      </c>
-      <c r="K21">
-        <v>12</v>
-      </c>
       <c r="L21">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M21">
         <v>1.02</v>
       </c>
       <c r="N21">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O21">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P21">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="Q21">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="R21">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="S21">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="T21">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="U21">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="W21">
         <v>1.06</v>
@@ -3722,7 +3719,7 @@
         <v>980</v>
       </c>
       <c r="AD21">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AE21">
         <v>980</v>
@@ -3755,7 +3752,7 @@
         <v>1000</v>
       </c>
       <c r="AO21">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -3769,10 +3766,10 @@
         <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -3781,16 +3778,16 @@
         <v>3.35</v>
       </c>
       <c r="H22">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="I22">
         <v>2.58</v>
       </c>
       <c r="J22">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K22">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L22">
         <v>1.43</v>
@@ -3799,88 +3796,88 @@
         <v>1.07</v>
       </c>
       <c r="N22">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O22">
         <v>1.32</v>
       </c>
       <c r="P22">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q22">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R22">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S22">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T22">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="U22">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="V22">
         <v>1.64</v>
       </c>
       <c r="W22">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X22">
+        <v>15.5</v>
+      </c>
+      <c r="Y22">
+        <v>12.5</v>
+      </c>
+      <c r="Z22">
+        <v>17.5</v>
+      </c>
+      <c r="AA22">
+        <v>44</v>
+      </c>
+      <c r="AB22">
         <v>14.5</v>
       </c>
-      <c r="Y22">
-        <v>11.5</v>
-      </c>
-      <c r="Z22">
-        <v>16.5</v>
-      </c>
-      <c r="AA22">
-        <v>48</v>
-      </c>
-      <c r="AB22">
-        <v>13</v>
-      </c>
       <c r="AC22">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD22">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE22">
         <v>38</v>
       </c>
       <c r="AF22">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG22">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH22">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI22">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AJ22">
         <v>170</v>
       </c>
       <c r="AK22">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AL22">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AM22">
         <v>580</v>
       </c>
       <c r="AN22">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AO22">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -3894,25 +3891,25 @@
         <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F23">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="G23">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="H23">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="I23">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J23">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K23">
         <v>4.1</v>
@@ -3933,7 +3930,7 @@
         <v>2.06</v>
       </c>
       <c r="Q23">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R23">
         <v>1.41</v>
@@ -3942,16 +3939,16 @@
         <v>3.2</v>
       </c>
       <c r="T23">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U23">
         <v>2.1</v>
       </c>
       <c r="V23">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W23">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="X23">
         <v>16</v>
@@ -3963,7 +3960,7 @@
         <v>40</v>
       </c>
       <c r="AA23">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="AB23">
         <v>9.199999999999999</v>
@@ -3972,28 +3969,28 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD23">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE23">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF23">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG23">
         <v>9.800000000000001</v>
       </c>
       <c r="AH23">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI23">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK23">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL23">
         <v>34</v>
@@ -4019,16 +4016,16 @@
         <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F24">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G24">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H24">
         <v>3.9</v>
@@ -4070,16 +4067,16 @@
         <v>1.77</v>
       </c>
       <c r="U24">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V24">
         <v>1.31</v>
       </c>
       <c r="W24">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X24">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y24">
         <v>16</v>
@@ -4115,7 +4112,7 @@
         <v>65</v>
       </c>
       <c r="AJ24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK24">
         <v>24</v>
@@ -4130,7 +4127,7 @@
         <v>14</v>
       </c>
       <c r="AO24">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -4144,10 +4141,10 @@
         <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F25">
         <v>2.66</v>
@@ -4177,7 +4174,7 @@
         <v>5.1</v>
       </c>
       <c r="O25">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P25">
         <v>2.36</v>
@@ -4192,10 +4189,10 @@
         <v>2.72</v>
       </c>
       <c r="T25">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U25">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V25">
         <v>1.54</v>
@@ -4225,7 +4222,7 @@
         <v>12.5</v>
       </c>
       <c r="AE25">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF25">
         <v>22</v>
@@ -4243,7 +4240,7 @@
         <v>100</v>
       </c>
       <c r="AK25">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL25">
         <v>34</v>
@@ -4252,10 +4249,10 @@
         <v>300</v>
       </c>
       <c r="AN25">
+        <v>19.5</v>
+      </c>
+      <c r="AO25">
         <v>22</v>
-      </c>
-      <c r="AO25">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -4269,16 +4266,16 @@
         <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F26">
         <v>1.84</v>
       </c>
       <c r="G26">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H26">
         <v>4.4</v>
@@ -4320,7 +4317,7 @@
         <v>1.67</v>
       </c>
       <c r="U26">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V26">
         <v>1.27</v>
@@ -4356,7 +4353,7 @@
         <v>13</v>
       </c>
       <c r="AG26">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH26">
         <v>17</v>
@@ -4394,73 +4391,73 @@
         <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F27">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="G27">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="H27">
-        <v>2.02</v>
+        <v>3.25</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J27">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="K27">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="L27">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M27">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N27">
-        <v>1.11</v>
+        <v>2.72</v>
       </c>
       <c r="O27">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="P27">
-        <v>1.05</v>
+        <v>1.56</v>
       </c>
       <c r="Q27">
-        <v>1.47</v>
+        <v>2.16</v>
       </c>
       <c r="R27">
         <v>1.22</v>
       </c>
       <c r="S27">
-        <v>1.05</v>
+        <v>3.8</v>
       </c>
       <c r="T27">
-        <v>1.03</v>
+        <v>1.62</v>
       </c>
       <c r="U27">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="V27">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W27">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X27">
         <v>1000</v>
       </c>
       <c r="Y27">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="Z27">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AA27">
         <v>220</v>
@@ -4472,19 +4469,19 @@
         <v>42</v>
       </c>
       <c r="AD27">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AE27">
         <v>220</v>
       </c>
       <c r="AF27">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AG27">
         <v>60</v>
       </c>
       <c r="AH27">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AI27">
         <v>300</v>
@@ -4493,7 +4490,7 @@
         <v>900</v>
       </c>
       <c r="AK27">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AL27">
         <v>230</v>
@@ -4502,7 +4499,7 @@
         <v>580</v>
       </c>
       <c r="AN27">
-        <v>600</v>
+        <v>980</v>
       </c>
       <c r="AO27">
         <v>600</v>
@@ -4519,19 +4516,19 @@
         <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F28">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="G28">
         <v>1.64</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I28">
         <v>6.8</v>
@@ -4540,7 +4537,7 @@
         <v>4.3</v>
       </c>
       <c r="K28">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L28">
         <v>1.3</v>
@@ -4564,7 +4561,7 @@
         <v>1.6</v>
       </c>
       <c r="S28">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T28">
         <v>1.68</v>
@@ -4609,10 +4606,10 @@
         <v>11</v>
       </c>
       <c r="AH28">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI28">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="AJ28">
         <v>16.5</v>
@@ -4644,10 +4641,10 @@
         <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F29">
         <v>1.43</v>
@@ -4734,7 +4731,7 @@
         <v>9.6</v>
       </c>
       <c r="AH29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI29">
         <v>100</v>
@@ -4769,10 +4766,10 @@
         <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F30">
         <v>3.45</v>
@@ -4832,13 +4829,13 @@
         <v>20</v>
       </c>
       <c r="Y30">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Z30">
         <v>36</v>
       </c>
       <c r="AA30">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB30">
         <v>27</v>
@@ -4894,22 +4891,22 @@
         <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F31">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G31">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H31">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I31">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -4918,10 +4915,10 @@
         <v>3.35</v>
       </c>
       <c r="L31">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="M31">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N31">
         <v>2.34</v>
@@ -4930,19 +4927,19 @@
         <v>1.69</v>
       </c>
       <c r="P31">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Q31">
         <v>3</v>
       </c>
       <c r="R31">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S31">
         <v>6.8</v>
       </c>
       <c r="T31">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U31">
         <v>1.56</v>
@@ -4951,13 +4948,13 @@
         <v>1.2</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X31">
         <v>13</v>
       </c>
       <c r="Y31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z31">
         <v>980</v>
@@ -4969,7 +4966,7 @@
         <v>5.8</v>
       </c>
       <c r="AC31">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AD31">
         <v>65</v>
@@ -4978,7 +4975,7 @@
         <v>1000</v>
       </c>
       <c r="AF31">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG31">
         <v>23</v>
@@ -4990,7 +4987,7 @@
         <v>1000</v>
       </c>
       <c r="AJ31">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AK31">
         <v>95</v>
@@ -5019,10 +5016,10 @@
         <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F32">
         <v>1.72</v>
@@ -5049,25 +5046,25 @@
         <v>1.04</v>
       </c>
       <c r="N32">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O32">
         <v>1.21</v>
       </c>
       <c r="P32">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="Q32">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="R32">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="S32">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="T32">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U32">
         <v>2.42</v>
@@ -5091,13 +5088,13 @@
         <v>120</v>
       </c>
       <c r="AB32">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC32">
         <v>10.5</v>
       </c>
       <c r="AD32">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE32">
         <v>55</v>
@@ -5109,7 +5106,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH32">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI32">
         <v>55</v>
@@ -5127,10 +5124,10 @@
         <v>75</v>
       </c>
       <c r="AN32">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AO32">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -5144,13 +5141,13 @@
         <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F33">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G33">
         <v>2.22</v>
@@ -5159,13 +5156,13 @@
         <v>4.4</v>
       </c>
       <c r="I33">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J33">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K33">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L33">
         <v>1.6</v>
@@ -5174,22 +5171,22 @@
         <v>1.13</v>
       </c>
       <c r="N33">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O33">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P33">
         <v>1.56</v>
       </c>
       <c r="Q33">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R33">
         <v>1.2</v>
       </c>
       <c r="S33">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T33">
         <v>2.16</v>
@@ -5269,10 +5266,10 @@
         <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F34">
         <v>5.6</v>
@@ -5308,7 +5305,7 @@
         <v>2.78</v>
       </c>
       <c r="Q34">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R34">
         <v>1.71</v>
@@ -5394,10 +5391,10 @@
         <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F35">
         <v>1.1</v>
@@ -5412,7 +5409,7 @@
         <v>1000</v>
       </c>
       <c r="J35">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K35">
         <v>980</v>
@@ -5519,10 +5516,10 @@
         <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F36">
         <v>7.4</v>
@@ -5537,7 +5534,7 @@
         <v>1.46</v>
       </c>
       <c r="J36">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K36">
         <v>6.2</v>
@@ -5549,28 +5546,28 @@
         <v>1.02</v>
       </c>
       <c r="N36">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O36">
         <v>1.15</v>
       </c>
       <c r="P36">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="Q36">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="R36">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T36">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U36">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V36">
         <v>3.15</v>
@@ -5579,16 +5576,16 @@
         <v>1.14</v>
       </c>
       <c r="X36">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y36">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z36">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA36">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB36">
         <v>980</v>
@@ -5609,7 +5606,7 @@
         <v>980</v>
       </c>
       <c r="AH36">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI36">
         <v>980</v>
@@ -5630,7 +5627,7 @@
         <v>220</v>
       </c>
       <c r="AO36">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -5644,10 +5641,10 @@
         <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F37">
         <v>2.9</v>
@@ -5656,10 +5653,10 @@
         <v>3</v>
       </c>
       <c r="H37">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I37">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J37">
         <v>3.6</v>
@@ -5698,7 +5695,7 @@
         <v>2.6</v>
       </c>
       <c r="V37">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W37">
         <v>1.5</v>
@@ -5707,7 +5704,7 @@
         <v>22</v>
       </c>
       <c r="Y37">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z37">
         <v>21</v>
@@ -5719,7 +5716,7 @@
         <v>19.5</v>
       </c>
       <c r="AC37">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD37">
         <v>14.5</v>
@@ -5740,7 +5737,7 @@
         <v>32</v>
       </c>
       <c r="AJ37">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK37">
         <v>30</v>
@@ -5769,10 +5766,10 @@
         <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F38">
         <v>3.4</v>
@@ -5894,13 +5891,13 @@
         <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F39">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G39">
         <v>3.7</v>
@@ -5909,40 +5906,40 @@
         <v>2.12</v>
       </c>
       <c r="I39">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J39">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K39">
         <v>3.9</v>
       </c>
       <c r="L39">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M39">
         <v>1.06</v>
       </c>
       <c r="N39">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O39">
         <v>1.29</v>
       </c>
       <c r="P39">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q39">
         <v>1.86</v>
       </c>
       <c r="R39">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S39">
         <v>3.2</v>
       </c>
       <c r="T39">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U39">
         <v>2.26</v>
@@ -5966,7 +5963,7 @@
         <v>27</v>
       </c>
       <c r="AB39">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC39">
         <v>8.4</v>
@@ -6019,13 +6016,13 @@
         <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F40">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G40">
         <v>2.3</v>
@@ -6034,16 +6031,16 @@
         <v>3.55</v>
       </c>
       <c r="I40">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J40">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K40">
         <v>3.6</v>
       </c>
       <c r="L40">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M40">
         <v>1.09</v>
@@ -6058,13 +6055,13 @@
         <v>1.77</v>
       </c>
       <c r="Q40">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R40">
         <v>1.28</v>
       </c>
       <c r="S40">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T40">
         <v>1.91</v>
@@ -6076,7 +6073,7 @@
         <v>1.35</v>
       </c>
       <c r="W40">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="X40">
         <v>12</v>
@@ -6127,7 +6124,7 @@
         <v>580</v>
       </c>
       <c r="AN40">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO40">
         <v>600</v>
@@ -6144,10 +6141,10 @@
         <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F41">
         <v>4.2</v>
@@ -6156,58 +6153,58 @@
         <v>4.7</v>
       </c>
       <c r="H41">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I41">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="J41">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K41">
         <v>4.5</v>
       </c>
       <c r="L41">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M41">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N41">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O41">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P41">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q41">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="R41">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S41">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="T41">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U41">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="V41">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W41">
         <v>1.27</v>
       </c>
       <c r="X41">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z41">
         <v>13.5</v>
@@ -6216,10 +6213,10 @@
         <v>36</v>
       </c>
       <c r="AB41">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC41">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD41">
         <v>11</v>
@@ -6231,7 +6228,7 @@
         <v>100</v>
       </c>
       <c r="AG41">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH41">
         <v>17.5</v>
@@ -6255,7 +6252,7 @@
         <v>980</v>
       </c>
       <c r="AO41">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -6269,19 +6266,19 @@
         <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F42">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G42">
         <v>1.82</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I42">
         <v>4.3</v>
@@ -6394,10 +6391,10 @@
         <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F43">
         <v>1.23</v>
@@ -6439,7 +6436,7 @@
         <v>1.92</v>
       </c>
       <c r="S43">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T43">
         <v>1.88</v>
@@ -6454,7 +6451,7 @@
         <v>4.8</v>
       </c>
       <c r="X43">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="Y43">
         <v>80</v>
@@ -6502,7 +6499,7 @@
         <v>140</v>
       </c>
       <c r="AN43">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO43">
         <v>180</v>
@@ -6519,10 +6516,10 @@
         <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F44">
         <v>1.9</v>
@@ -6537,7 +6534,7 @@
         <v>3.95</v>
       </c>
       <c r="J44">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K44">
         <v>4.8</v>
@@ -6615,13 +6612,13 @@
         <v>65</v>
       </c>
       <c r="AJ44">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK44">
         <v>18</v>
       </c>
       <c r="AL44">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM44">
         <v>80</v>
@@ -6644,10 +6641,10 @@
         <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F45">
         <v>3.1</v>
@@ -6662,7 +6659,7 @@
         <v>2.34</v>
       </c>
       <c r="J45">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K45">
         <v>4.1</v>
@@ -6686,7 +6683,7 @@
         <v>1.68</v>
       </c>
       <c r="R45">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S45">
         <v>2.72</v>
@@ -6752,7 +6749,7 @@
         <v>200</v>
       </c>
       <c r="AN45">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="AO45">
         <v>13</v>
@@ -6769,10 +6766,10 @@
         <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F46">
         <v>1.79</v>
@@ -6894,10 +6891,10 @@
         <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F47">
         <v>1.67</v>
@@ -7019,13 +7016,13 @@
         <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F48">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G48">
         <v>2.74</v>
@@ -7073,7 +7070,7 @@
         <v>2.06</v>
       </c>
       <c r="V48">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W48">
         <v>1.57</v>
@@ -7144,16 +7141,16 @@
         <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F49">
         <v>1.76</v>
       </c>
       <c r="G49">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H49">
         <v>4.3</v>
@@ -7180,7 +7177,7 @@
         <v>1.16</v>
       </c>
       <c r="P49">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q49">
         <v>1.51</v>
@@ -7269,13 +7266,13 @@
         <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F50">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G50">
         <v>2.5</v>
@@ -7293,28 +7290,28 @@
         <v>3.6</v>
       </c>
       <c r="L50">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M50">
         <v>1.07</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O50">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P50">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q50">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R50">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S50">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T50">
         <v>1.76</v>
@@ -7332,7 +7329,7 @@
         <v>14.5</v>
       </c>
       <c r="Y50">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z50">
         <v>23</v>
@@ -7347,7 +7344,7 @@
         <v>8</v>
       </c>
       <c r="AD50">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE50">
         <v>36</v>
@@ -7394,10 +7391,10 @@
         <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F51">
         <v>2.32</v>
@@ -7412,7 +7409,7 @@
         <v>3.3</v>
       </c>
       <c r="J51">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K51">
         <v>3.8</v>
@@ -7445,13 +7442,13 @@
         <v>1.6</v>
       </c>
       <c r="U51">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V51">
         <v>1.43</v>
       </c>
       <c r="W51">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X51">
         <v>17.5</v>
@@ -7469,7 +7466,7 @@
         <v>12.5</v>
       </c>
       <c r="AC51">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD51">
         <v>13.5</v>
@@ -7519,10 +7516,10 @@
         <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F52">
         <v>1.86</v>
@@ -7567,10 +7564,10 @@
         <v>4.1</v>
       </c>
       <c r="T52">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U52">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V52">
         <v>1.22</v>
@@ -7644,10 +7641,10 @@
         <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F53">
         <v>1.61</v>
@@ -7692,13 +7689,13 @@
         <v>4.1</v>
       </c>
       <c r="T53">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U53">
         <v>1.73</v>
       </c>
       <c r="V53">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W53">
         <v>2.46</v>
@@ -7710,7 +7707,7 @@
         <v>20</v>
       </c>
       <c r="Z53">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="AA53">
         <v>1000</v>
@@ -7769,10 +7766,10 @@
         <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F54">
         <v>2.78</v>
@@ -7784,7 +7781,7 @@
         <v>2.9</v>
       </c>
       <c r="I54">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J54">
         <v>2.9</v>
@@ -7823,7 +7820,7 @@
         <v>1.8</v>
       </c>
       <c r="V54">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W54">
         <v>1.47</v>
@@ -7894,28 +7891,28 @@
         <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F55">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H55">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I55">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J55">
         <v>2.86</v>
       </c>
       <c r="K55">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="L55">
         <v>1.69</v>
@@ -7930,10 +7927,10 @@
         <v>1.68</v>
       </c>
       <c r="P55">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q55">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="R55">
         <v>1.15</v>
@@ -7948,16 +7945,16 @@
         <v>1.7</v>
       </c>
       <c r="V55">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W55">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X55">
         <v>7</v>
       </c>
       <c r="Y55">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z55">
         <v>18</v>
@@ -7966,7 +7963,7 @@
         <v>60</v>
       </c>
       <c r="AB55">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC55">
         <v>6.8</v>
@@ -7984,7 +7981,7 @@
         <v>14.5</v>
       </c>
       <c r="AH55">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI55">
         <v>450</v>
@@ -7993,13 +7990,13 @@
         <v>55</v>
       </c>
       <c r="AK55">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AL55">
         <v>450</v>
       </c>
       <c r="AM55">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN55">
         <v>70</v>
@@ -8019,13 +8016,13 @@
         <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E56" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F56">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G56">
         <v>2.58</v>
@@ -8034,13 +8031,13 @@
         <v>3.05</v>
       </c>
       <c r="I56">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J56">
         <v>3.3</v>
       </c>
       <c r="K56">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L56">
         <v>1.4</v>
@@ -8073,7 +8070,7 @@
         <v>2.16</v>
       </c>
       <c r="V56">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W56">
         <v>1.63</v>
@@ -8085,7 +8082,7 @@
         <v>32</v>
       </c>
       <c r="Z56">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AA56">
         <v>300</v>
@@ -8100,7 +8097,7 @@
         <v>32</v>
       </c>
       <c r="AE56">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AF56">
         <v>36</v>
@@ -8112,7 +8109,7 @@
         <v>29</v>
       </c>
       <c r="AI56">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AJ56">
         <v>120</v>
@@ -8130,7 +8127,7 @@
         <v>55</v>
       </c>
       <c r="AO56">
-        <v>980</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:41">
@@ -8144,28 +8141,28 @@
         <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F57">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G57">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H57">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I57">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J57">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K57">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L57">
         <v>1.55</v>
@@ -8195,7 +8192,7 @@
         <v>2</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V57">
         <v>1.74</v>
@@ -8207,10 +8204,10 @@
         <v>10.5</v>
       </c>
       <c r="Y57">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z57">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA57">
         <v>32</v>
@@ -8246,13 +8243,13 @@
         <v>90</v>
       </c>
       <c r="AL57">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM57">
         <v>160</v>
       </c>
       <c r="AN57">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AO57">
         <v>28</v>
@@ -8269,16 +8266,16 @@
         <v>95</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F58">
+        <v>3.2</v>
+      </c>
+      <c r="G58">
         <v>3.25</v>
-      </c>
-      <c r="G58">
-        <v>3.3</v>
       </c>
       <c r="H58">
         <v>2.68</v>
@@ -8287,16 +8284,16 @@
         <v>2.7</v>
       </c>
       <c r="J58">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K58">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L58">
         <v>1.62</v>
       </c>
       <c r="M58">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N58">
         <v>2.84</v>
@@ -8320,13 +8317,13 @@
         <v>2.1</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V58">
         <v>1.58</v>
       </c>
       <c r="W58">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X58">
         <v>8.6</v>
@@ -8335,7 +8332,7 @@
         <v>8.4</v>
       </c>
       <c r="Z58">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA58">
         <v>42</v>
@@ -8394,118 +8391,118 @@
         <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F59">
-        <v>1.22</v>
+        <v>1.72</v>
       </c>
       <c r="G59">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="H59">
-        <v>12.5</v>
+        <v>6.2</v>
       </c>
       <c r="I59">
-        <v>15.5</v>
+        <v>6.4</v>
       </c>
       <c r="J59">
+        <v>3.8</v>
+      </c>
+      <c r="K59">
+        <v>3.85</v>
+      </c>
+      <c r="L59">
+        <v>1.53</v>
+      </c>
+      <c r="M59">
+        <v>1.09</v>
+      </c>
+      <c r="N59">
+        <v>3.15</v>
+      </c>
+      <c r="O59">
+        <v>1.45</v>
+      </c>
+      <c r="P59">
+        <v>1.73</v>
+      </c>
+      <c r="Q59">
+        <v>2.34</v>
+      </c>
+      <c r="R59">
+        <v>1.26</v>
+      </c>
+      <c r="S59">
+        <v>4.6</v>
+      </c>
+      <c r="T59">
+        <v>2.22</v>
+      </c>
+      <c r="U59">
+        <v>1.78</v>
+      </c>
+      <c r="V59">
+        <v>1.18</v>
+      </c>
+      <c r="W59">
+        <v>2.36</v>
+      </c>
+      <c r="X59">
+        <v>11</v>
+      </c>
+      <c r="Y59">
+        <v>17</v>
+      </c>
+      <c r="Z59">
+        <v>46</v>
+      </c>
+      <c r="AA59">
+        <v>190</v>
+      </c>
+      <c r="AB59">
+        <v>6.6</v>
+      </c>
+      <c r="AC59">
         <v>8.4</v>
       </c>
-      <c r="K59">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L59">
-        <v>1.17</v>
-      </c>
-      <c r="M59">
-        <v>1.01</v>
-      </c>
-      <c r="N59">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="O59">
-        <v>1.09</v>
-      </c>
-      <c r="P59">
-        <v>4</v>
-      </c>
-      <c r="Q59">
-        <v>1.28</v>
-      </c>
-      <c r="R59">
-        <v>2.28</v>
-      </c>
-      <c r="S59">
-        <v>1.7</v>
-      </c>
-      <c r="T59">
-        <v>1.73</v>
-      </c>
-      <c r="U59">
-        <v>2.1</v>
-      </c>
-      <c r="V59">
-        <v>1.07</v>
-      </c>
-      <c r="W59">
-        <v>5</v>
-      </c>
-      <c r="X59">
-        <v>130</v>
-      </c>
-      <c r="Y59">
-        <v>980</v>
-      </c>
-      <c r="Z59">
+      <c r="AD59">
+        <v>25</v>
+      </c>
+      <c r="AE59">
+        <v>110</v>
+      </c>
+      <c r="AF59">
+        <v>8.6</v>
+      </c>
+      <c r="AG59">
+        <v>10</v>
+      </c>
+      <c r="AH59">
+        <v>26</v>
+      </c>
+      <c r="AI59">
+        <v>120</v>
+      </c>
+      <c r="AJ59">
+        <v>17</v>
+      </c>
+      <c r="AK59">
+        <v>21</v>
+      </c>
+      <c r="AL59">
+        <v>48</v>
+      </c>
+      <c r="AM59">
+        <v>190</v>
+      </c>
+      <c r="AN59">
+        <v>14</v>
+      </c>
+      <c r="AO59">
         <v>170</v>
-      </c>
-      <c r="AA59">
-        <v>470</v>
-      </c>
-      <c r="AB59">
-        <v>18</v>
-      </c>
-      <c r="AC59">
-        <v>23</v>
-      </c>
-      <c r="AD59">
-        <v>110</v>
-      </c>
-      <c r="AE59">
-        <v>170</v>
-      </c>
-      <c r="AF59">
-        <v>13</v>
-      </c>
-      <c r="AG59">
-        <v>12</v>
-      </c>
-      <c r="AH59">
-        <v>34</v>
-      </c>
-      <c r="AI59">
-        <v>360</v>
-      </c>
-      <c r="AJ59">
-        <v>12</v>
-      </c>
-      <c r="AK59">
-        <v>14</v>
-      </c>
-      <c r="AL59">
-        <v>29</v>
-      </c>
-      <c r="AM59">
-        <v>300</v>
-      </c>
-      <c r="AN59">
-        <v>2.78</v>
-      </c>
-      <c r="AO59">
-        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:41">
@@ -8519,118 +8516,118 @@
         <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F60">
-        <v>1.73</v>
+        <v>12.5</v>
       </c>
       <c r="G60">
-        <v>1.74</v>
+        <v>13</v>
       </c>
       <c r="H60">
-        <v>5.8</v>
+        <v>1.31</v>
       </c>
       <c r="I60">
-        <v>5.9</v>
+        <v>1.32</v>
       </c>
       <c r="J60">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="K60">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="L60">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="M60">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N60">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="O60">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="P60">
-        <v>1.94</v>
+        <v>2.36</v>
       </c>
       <c r="Q60">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="R60">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="S60">
-        <v>3.65</v>
+        <v>2.8</v>
       </c>
       <c r="T60">
-        <v>1.99</v>
+        <v>2.22</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="V60">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="W60">
-        <v>2.34</v>
+        <v>1.08</v>
       </c>
       <c r="X60">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Y60">
-        <v>18</v>
+        <v>8.6</v>
       </c>
       <c r="Z60">
+        <v>7.6</v>
+      </c>
+      <c r="AA60">
+        <v>9.6</v>
+      </c>
+      <c r="AB60">
+        <v>38</v>
+      </c>
+      <c r="AC60">
+        <v>13.5</v>
+      </c>
+      <c r="AD60">
+        <v>10.5</v>
+      </c>
+      <c r="AE60">
+        <v>14.5</v>
+      </c>
+      <c r="AF60">
+        <v>510</v>
+      </c>
+      <c r="AG60">
+        <v>46</v>
+      </c>
+      <c r="AH60">
+        <v>32</v>
+      </c>
+      <c r="AI60">
         <v>40</v>
       </c>
-      <c r="AA60">
-        <v>140</v>
-      </c>
-      <c r="AB60">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC60">
-        <v>8.6</v>
-      </c>
-      <c r="AD60">
-        <v>22</v>
-      </c>
-      <c r="AE60">
-        <v>75</v>
-      </c>
-      <c r="AF60">
-        <v>9.4</v>
-      </c>
-      <c r="AG60">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH60">
-        <v>22</v>
-      </c>
-      <c r="AI60">
-        <v>85</v>
-      </c>
       <c r="AJ60">
-        <v>16.5</v>
+        <v>570</v>
       </c>
       <c r="AK60">
-        <v>17.5</v>
+        <v>220</v>
       </c>
       <c r="AL60">
-        <v>38</v>
+        <v>470</v>
       </c>
       <c r="AM60">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="AN60">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="AO60">
-        <v>110</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="61" spans="1:41">
@@ -8644,118 +8641,118 @@
         <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F61">
-        <v>12.5</v>
+        <v>2.02</v>
       </c>
       <c r="G61">
-        <v>13</v>
+        <v>2.12</v>
       </c>
       <c r="H61">
-        <v>1.31</v>
+        <v>4.1</v>
       </c>
       <c r="I61">
-        <v>1.32</v>
+        <v>4.5</v>
       </c>
       <c r="J61">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="K61">
-        <v>6.2</v>
+        <v>3.65</v>
       </c>
       <c r="L61">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="M61">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N61">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="O61">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="P61">
-        <v>2.36</v>
+        <v>1.73</v>
       </c>
       <c r="Q61">
-        <v>1.73</v>
+        <v>2.26</v>
       </c>
       <c r="R61">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="S61">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="T61">
-        <v>2.22</v>
+        <v>1.92</v>
       </c>
       <c r="U61">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>4.1</v>
+        <v>1.29</v>
       </c>
       <c r="W61">
-        <v>1.08</v>
+        <v>1.89</v>
       </c>
       <c r="X61">
+        <v>11.5</v>
+      </c>
+      <c r="Y61">
+        <v>13.5</v>
+      </c>
+      <c r="Z61">
+        <v>85</v>
+      </c>
+      <c r="AA61">
+        <v>300</v>
+      </c>
+      <c r="AB61">
+        <v>7.8</v>
+      </c>
+      <c r="AC61">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD61">
+        <v>18.5</v>
+      </c>
+      <c r="AE61">
+        <v>170</v>
+      </c>
+      <c r="AF61">
+        <v>12</v>
+      </c>
+      <c r="AG61">
+        <v>11.5</v>
+      </c>
+      <c r="AH61">
         <v>23</v>
       </c>
-      <c r="Y61">
-        <v>8.6</v>
-      </c>
-      <c r="Z61">
-        <v>7.6</v>
-      </c>
-      <c r="AA61">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AB61">
-        <v>38</v>
-      </c>
-      <c r="AC61">
-        <v>13.5</v>
-      </c>
-      <c r="AD61">
-        <v>10.5</v>
-      </c>
-      <c r="AE61">
-        <v>14.5</v>
-      </c>
-      <c r="AF61">
-        <v>510</v>
-      </c>
-      <c r="AG61">
-        <v>44</v>
-      </c>
-      <c r="AH61">
-        <v>32</v>
-      </c>
       <c r="AI61">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AJ61">
-        <v>570</v>
+        <v>27</v>
       </c>
       <c r="AK61">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="AL61">
-        <v>470</v>
+        <v>150</v>
       </c>
       <c r="AM61">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN61">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="AO61">
-        <v>5.2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62" spans="1:41">
@@ -8769,118 +8766,118 @@
         <v>96</v>
       </c>
       <c r="D62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F62">
-        <v>1.72</v>
+        <v>2.76</v>
       </c>
       <c r="G62">
-        <v>1.73</v>
+        <v>2.9</v>
       </c>
       <c r="H62">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="J62">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="K62">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="L62">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M62">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N62">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="O62">
+        <v>1.52</v>
+      </c>
+      <c r="P62">
+        <v>1.57</v>
+      </c>
+      <c r="Q62">
+        <v>2.6</v>
+      </c>
+      <c r="R62">
+        <v>1.2</v>
+      </c>
+      <c r="S62">
+        <v>5.2</v>
+      </c>
+      <c r="T62">
+        <v>2.04</v>
+      </c>
+      <c r="U62">
+        <v>1.84</v>
+      </c>
+      <c r="V62">
         <v>1.45</v>
       </c>
-      <c r="P62">
-        <v>1.73</v>
-      </c>
-      <c r="Q62">
-        <v>2.34</v>
-      </c>
-      <c r="R62">
-        <v>1.26</v>
-      </c>
-      <c r="S62">
-        <v>4.6</v>
-      </c>
-      <c r="T62">
-        <v>2.22</v>
-      </c>
-      <c r="U62">
-        <v>1.78</v>
-      </c>
-      <c r="V62">
-        <v>1.18</v>
-      </c>
       <c r="W62">
-        <v>2.38</v>
+        <v>1.52</v>
       </c>
       <c r="X62">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y62">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z62">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AA62">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AB62">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="AC62">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD62">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AE62">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AF62">
-        <v>8.6</v>
+        <v>32</v>
       </c>
       <c r="AG62">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AH62">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AI62">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AJ62">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="AK62">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL62">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="AM62">
         <v>190</v>
       </c>
       <c r="AN62">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AO62">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:41">
@@ -8894,118 +8891,118 @@
         <v>96</v>
       </c>
       <c r="D63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="G63">
-        <v>2.12</v>
+        <v>1.25</v>
       </c>
       <c r="H63">
-        <v>4.1</v>
+        <v>12.5</v>
       </c>
       <c r="I63">
-        <v>4.5</v>
+        <v>15.5</v>
       </c>
       <c r="J63">
-        <v>3.35</v>
+        <v>8.4</v>
       </c>
       <c r="K63">
-        <v>3.65</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L63">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="M63">
+        <v>1.01</v>
+      </c>
+      <c r="N63">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O63">
         <v>1.09</v>
       </c>
-      <c r="N63">
-        <v>3.2</v>
-      </c>
-      <c r="O63">
-        <v>1.42</v>
-      </c>
       <c r="P63">
+        <v>4</v>
+      </c>
+      <c r="Q63">
+        <v>1.28</v>
+      </c>
+      <c r="R63">
+        <v>2.28</v>
+      </c>
+      <c r="S63">
+        <v>1.7</v>
+      </c>
+      <c r="T63">
         <v>1.73</v>
       </c>
-      <c r="Q63">
-        <v>2.26</v>
-      </c>
-      <c r="R63">
-        <v>1.26</v>
-      </c>
-      <c r="S63">
-        <v>4.2</v>
-      </c>
-      <c r="T63">
-        <v>1.92</v>
-      </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V63">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="W63">
-        <v>1.89</v>
+        <v>5</v>
       </c>
       <c r="X63">
-        <v>11.5</v>
+        <v>200</v>
       </c>
       <c r="Y63">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Z63">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="AA63">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="AB63">
-        <v>7.8</v>
+        <v>18.5</v>
       </c>
       <c r="AC63">
-        <v>8.199999999999999</v>
+        <v>23</v>
       </c>
       <c r="AD63">
-        <v>18.5</v>
+        <v>110</v>
       </c>
       <c r="AE63">
         <v>170</v>
       </c>
       <c r="AF63">
+        <v>13</v>
+      </c>
+      <c r="AG63">
         <v>12</v>
       </c>
-      <c r="AG63">
-        <v>11.5</v>
-      </c>
       <c r="AH63">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AI63">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="AJ63">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AK63">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AL63">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="AM63">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="AN63">
-        <v>22</v>
+        <v>2.8</v>
       </c>
       <c r="AO63">
-        <v>600</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:41">
@@ -9016,121 +9013,121 @@
         <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F64">
+        <v>1.72</v>
+      </c>
+      <c r="G64">
+        <v>1.73</v>
+      </c>
+      <c r="H64">
+        <v>5.8</v>
+      </c>
+      <c r="I64">
+        <v>5.9</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>4.1</v>
+      </c>
+      <c r="L64">
+        <v>1.45</v>
+      </c>
+      <c r="M64">
+        <v>1.07</v>
+      </c>
+      <c r="N64">
+        <v>3.85</v>
+      </c>
+      <c r="O64">
+        <v>1.34</v>
+      </c>
+      <c r="P64">
+        <v>1.94</v>
+      </c>
+      <c r="Q64">
+        <v>2.04</v>
+      </c>
+      <c r="R64">
+        <v>1.37</v>
+      </c>
+      <c r="S64">
         <v>3.65</v>
       </c>
-      <c r="G64">
-        <v>3.9</v>
-      </c>
-      <c r="H64">
+      <c r="T64">
+        <v>2</v>
+      </c>
+      <c r="U64">
         <v>1.99</v>
       </c>
-      <c r="I64">
-        <v>2.04</v>
-      </c>
-      <c r="J64">
-        <v>4.1</v>
-      </c>
-      <c r="K64">
-        <v>4.4</v>
-      </c>
-      <c r="L64">
-        <v>1.25</v>
-      </c>
-      <c r="M64">
-        <v>1.02</v>
-      </c>
-      <c r="N64">
-        <v>7.2</v>
-      </c>
-      <c r="O64">
-        <v>1.14</v>
-      </c>
-      <c r="P64">
-        <v>3.05</v>
-      </c>
-      <c r="Q64">
-        <v>1.46</v>
-      </c>
-      <c r="R64">
-        <v>1.83</v>
-      </c>
-      <c r="S64">
-        <v>2.12</v>
-      </c>
-      <c r="T64">
-        <v>1.45</v>
-      </c>
-      <c r="U64">
-        <v>2.96</v>
-      </c>
       <c r="V64">
-        <v>1.96</v>
+        <v>1.2</v>
       </c>
       <c r="W64">
-        <v>1.35</v>
+        <v>2.36</v>
       </c>
       <c r="X64">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="Y64">
+        <v>18.5</v>
+      </c>
+      <c r="Z64">
+        <v>40</v>
+      </c>
+      <c r="AA64">
+        <v>140</v>
+      </c>
+      <c r="AB64">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC64">
+        <v>8.6</v>
+      </c>
+      <c r="AD64">
+        <v>22</v>
+      </c>
+      <c r="AE64">
+        <v>75</v>
+      </c>
+      <c r="AF64">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG64">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH64">
+        <v>22</v>
+      </c>
+      <c r="AI64">
+        <v>85</v>
+      </c>
+      <c r="AJ64">
+        <v>16.5</v>
+      </c>
+      <c r="AK64">
+        <v>17.5</v>
+      </c>
+      <c r="AL64">
         <v>38</v>
       </c>
-      <c r="Z64">
-        <v>19</v>
-      </c>
-      <c r="AA64">
-        <v>48</v>
-      </c>
-      <c r="AB64">
-        <v>980</v>
-      </c>
-      <c r="AC64">
-        <v>11.5</v>
-      </c>
-      <c r="AD64">
-        <v>19</v>
-      </c>
-      <c r="AE64">
-        <v>38</v>
-      </c>
-      <c r="AF64">
-        <v>1000</v>
-      </c>
-      <c r="AG64">
-        <v>29</v>
-      </c>
-      <c r="AH64">
-        <v>14.5</v>
-      </c>
-      <c r="AI64">
-        <v>46</v>
-      </c>
-      <c r="AJ64">
-        <v>530</v>
-      </c>
-      <c r="AK64">
-        <v>130</v>
-      </c>
-      <c r="AL64">
-        <v>65</v>
-      </c>
       <c r="AM64">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN64">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="AO64">
-        <v>7.6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:41">
@@ -9141,493 +9138,493 @@
         <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F65">
-        <v>2.3</v>
+        <v>3.65</v>
       </c>
       <c r="G65">
-        <v>2.52</v>
+        <v>3.9</v>
       </c>
       <c r="H65">
-        <v>3.45</v>
+        <v>1.99</v>
       </c>
       <c r="I65">
-        <v>3.85</v>
+        <v>2.04</v>
       </c>
       <c r="J65">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="L65">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
       <c r="M65">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N65">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="O65">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="P65">
-        <v>1.72</v>
+        <v>3.05</v>
       </c>
       <c r="Q65">
-        <v>2.22</v>
+        <v>1.45</v>
       </c>
       <c r="R65">
-        <v>1.27</v>
+        <v>1.83</v>
       </c>
       <c r="S65">
-        <v>4.1</v>
+        <v>2.14</v>
       </c>
       <c r="T65">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="U65">
+        <v>2.96</v>
+      </c>
+      <c r="V65">
         <v>1.96</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>1.35</v>
       </c>
-      <c r="W65">
-        <v>1.65</v>
-      </c>
       <c r="X65">
+        <v>46</v>
+      </c>
+      <c r="Y65">
+        <v>38</v>
+      </c>
+      <c r="Z65">
+        <v>19</v>
+      </c>
+      <c r="AA65">
+        <v>48</v>
+      </c>
+      <c r="AB65">
+        <v>980</v>
+      </c>
+      <c r="AC65">
         <v>11.5</v>
       </c>
-      <c r="Y65">
-        <v>12.5</v>
-      </c>
-      <c r="Z65">
-        <v>26</v>
-      </c>
-      <c r="AA65">
-        <v>270</v>
-      </c>
-      <c r="AB65">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC65">
-        <v>7.8</v>
-      </c>
       <c r="AD65">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE65">
-        <v>270</v>
+        <v>38</v>
       </c>
       <c r="AF65">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG65">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AH65">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI65">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="AJ65">
-        <v>48</v>
+        <v>530</v>
       </c>
       <c r="AK65">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AL65">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AM65">
         <v>580</v>
       </c>
       <c r="AN65">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="AO65">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
         <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F66">
-        <v>1.21</v>
+        <v>2.3</v>
       </c>
       <c r="G66">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="H66">
-        <v>13</v>
+        <v>3.45</v>
       </c>
       <c r="I66">
-        <v>17</v>
+        <v>3.85</v>
       </c>
       <c r="J66">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="K66">
-        <v>9.4</v>
+        <v>3.4</v>
       </c>
       <c r="L66">
-        <v>1.2</v>
+        <v>1.49</v>
       </c>
       <c r="M66">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N66">
-        <v>8.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="O66">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="P66">
-        <v>3.5</v>
+        <v>1.72</v>
       </c>
       <c r="Q66">
-        <v>1.33</v>
+        <v>2.22</v>
       </c>
       <c r="R66">
-        <v>2.02</v>
+        <v>1.27</v>
       </c>
       <c r="S66">
-        <v>1.84</v>
+        <v>4.1</v>
       </c>
       <c r="T66">
         <v>1.85</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V66">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="W66">
-        <v>5</v>
+        <v>1.66</v>
       </c>
       <c r="X66">
+        <v>11.5</v>
+      </c>
+      <c r="Y66">
+        <v>12.5</v>
+      </c>
+      <c r="Z66">
+        <v>26</v>
+      </c>
+      <c r="AA66">
+        <v>270</v>
+      </c>
+      <c r="AB66">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC66">
+        <v>7.8</v>
+      </c>
+      <c r="AD66">
+        <v>16</v>
+      </c>
+      <c r="AE66">
+        <v>270</v>
+      </c>
+      <c r="AF66">
+        <v>15</v>
+      </c>
+      <c r="AG66">
+        <v>12</v>
+      </c>
+      <c r="AH66">
+        <v>19.5</v>
+      </c>
+      <c r="AI66">
+        <v>160</v>
+      </c>
+      <c r="AJ66">
+        <v>46</v>
+      </c>
+      <c r="AK66">
         <v>48</v>
       </c>
-      <c r="Y66">
-        <v>320</v>
-      </c>
-      <c r="Z66">
-        <v>180</v>
-      </c>
-      <c r="AA66">
+      <c r="AL66">
+        <v>170</v>
+      </c>
+      <c r="AM66">
+        <v>580</v>
+      </c>
+      <c r="AN66">
+        <v>600</v>
+      </c>
+      <c r="AO66">
         <v>1000</v>
-      </c>
-      <c r="AB66">
-        <v>16</v>
-      </c>
-      <c r="AC66">
-        <v>20</v>
-      </c>
-      <c r="AD66">
-        <v>55</v>
-      </c>
-      <c r="AE66">
-        <v>200</v>
-      </c>
-      <c r="AF66">
-        <v>12</v>
-      </c>
-      <c r="AG66">
-        <v>12.5</v>
-      </c>
-      <c r="AH66">
-        <v>32</v>
-      </c>
-      <c r="AI66">
-        <v>140</v>
-      </c>
-      <c r="AJ66">
-        <v>11</v>
-      </c>
-      <c r="AK66">
-        <v>13</v>
-      </c>
-      <c r="AL66">
-        <v>32</v>
-      </c>
-      <c r="AM66">
-        <v>130</v>
-      </c>
-      <c r="AN66">
-        <v>3.1</v>
-      </c>
-      <c r="AO66">
-        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
         <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F67">
-        <v>1.84</v>
+        <v>1.2</v>
       </c>
       <c r="G67">
-        <v>1.88</v>
+        <v>1.26</v>
       </c>
       <c r="H67">
-        <v>5.3</v>
+        <v>13</v>
       </c>
       <c r="I67">
-        <v>5.7</v>
+        <v>17</v>
       </c>
       <c r="J67">
-        <v>3.45</v>
+        <v>7.4</v>
       </c>
       <c r="K67">
-        <v>3.7</v>
+        <v>9.4</v>
       </c>
       <c r="L67">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="M67">
+        <v>1.02</v>
+      </c>
+      <c r="N67">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O67">
         <v>1.1</v>
       </c>
-      <c r="N67">
-        <v>3</v>
-      </c>
-      <c r="O67">
-        <v>1.45</v>
-      </c>
       <c r="P67">
-        <v>1.67</v>
+        <v>3.5</v>
       </c>
       <c r="Q67">
-        <v>2.36</v>
+        <v>1.33</v>
       </c>
       <c r="R67">
-        <v>1.24</v>
+        <v>2.02</v>
       </c>
       <c r="S67">
-        <v>4.6</v>
+        <v>1.87</v>
       </c>
       <c r="T67">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
       <c r="U67">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>1.21</v>
+        <v>1.06</v>
       </c>
       <c r="W67">
-        <v>2.12</v>
+        <v>4.8</v>
       </c>
       <c r="X67">
-        <v>10.5</v>
+        <v>55</v>
       </c>
       <c r="Y67">
+        <v>320</v>
+      </c>
+      <c r="Z67">
+        <v>190</v>
+      </c>
+      <c r="AA67">
+        <v>1000</v>
+      </c>
+      <c r="AB67">
         <v>16</v>
       </c>
-      <c r="Z67">
-        <v>980</v>
-      </c>
-      <c r="AA67">
-        <v>190</v>
-      </c>
-      <c r="AB67">
-        <v>7.2</v>
-      </c>
       <c r="AC67">
-        <v>8.4</v>
+        <v>21</v>
       </c>
       <c r="AD67">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AE67">
-        <v>440</v>
+        <v>200</v>
       </c>
       <c r="AF67">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AG67">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH67">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI67">
         <v>450</v>
       </c>
       <c r="AJ67">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AK67">
-        <v>70</v>
+        <v>14.5</v>
       </c>
       <c r="AL67">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="AM67">
-        <v>580</v>
+        <v>370</v>
       </c>
       <c r="AN67">
-        <v>55</v>
+        <v>3.1</v>
       </c>
       <c r="AO67">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F68">
-        <v>2.38</v>
+        <v>1.84</v>
       </c>
       <c r="G68">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="H68">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="J68">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="K68">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="L68">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="M68">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N68">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="O68">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="P68">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="Q68">
-        <v>2.68</v>
+        <v>2.36</v>
       </c>
       <c r="R68">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S68">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="T68">
         <v>2.16</v>
       </c>
       <c r="U68">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V68">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="W68">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
       <c r="X68">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y68">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="Z68">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AA68">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="AB68">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC68">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD68">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AE68">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="AF68">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG68">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH68">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI68">
         <v>450</v>
       </c>
       <c r="AJ68">
-        <v>900</v>
+        <v>23</v>
       </c>
       <c r="AK68">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AL68">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="AM68">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="AN68">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AO68">
         <v>600</v>
@@ -9635,7 +9632,7 @@
     </row>
     <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
         <v>81</v>
@@ -9644,248 +9641,248 @@
         <v>101</v>
       </c>
       <c r="D69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E69" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="G69">
+        <v>2.44</v>
+      </c>
+      <c r="H69">
+        <v>3.7</v>
+      </c>
+      <c r="I69">
+        <v>3.95</v>
+      </c>
+      <c r="J69">
+        <v>2.98</v>
+      </c>
+      <c r="K69">
+        <v>3.2</v>
+      </c>
+      <c r="L69">
+        <v>1.61</v>
+      </c>
+      <c r="M69">
+        <v>1.13</v>
+      </c>
+      <c r="N69">
+        <v>2.68</v>
+      </c>
+      <c r="O69">
+        <v>1.55</v>
+      </c>
+      <c r="P69">
+        <v>1.54</v>
+      </c>
+      <c r="Q69">
+        <v>2.68</v>
+      </c>
+      <c r="R69">
+        <v>1.19</v>
+      </c>
+      <c r="S69">
         <v>5.6</v>
       </c>
-      <c r="H69">
-        <v>1.78</v>
-      </c>
-      <c r="I69">
-        <v>1.83</v>
-      </c>
-      <c r="J69">
-        <v>3.8</v>
-      </c>
-      <c r="K69">
-        <v>4.1</v>
-      </c>
-      <c r="L69">
-        <v>1.44</v>
-      </c>
-      <c r="M69">
-        <v>1.07</v>
-      </c>
-      <c r="N69">
-        <v>3.6</v>
-      </c>
-      <c r="O69">
+      <c r="T69">
+        <v>2.16</v>
+      </c>
+      <c r="U69">
+        <v>1.75</v>
+      </c>
+      <c r="V69">
         <v>1.33</v>
       </c>
-      <c r="P69">
-        <v>1.9</v>
-      </c>
-      <c r="Q69">
-        <v>2</v>
-      </c>
-      <c r="R69">
-        <v>1.35</v>
-      </c>
-      <c r="S69">
-        <v>3.5</v>
-      </c>
-      <c r="T69">
-        <v>1.9</v>
-      </c>
-      <c r="U69">
-        <v>1.94</v>
-      </c>
-      <c r="V69">
-        <v>2.18</v>
-      </c>
       <c r="W69">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="X69">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y69">
+        <v>11</v>
+      </c>
+      <c r="Z69">
+        <v>90</v>
+      </c>
+      <c r="AA69">
+        <v>270</v>
+      </c>
+      <c r="AB69">
+        <v>7.8</v>
+      </c>
+      <c r="AC69">
+        <v>7.6</v>
+      </c>
+      <c r="AD69">
+        <v>34</v>
+      </c>
+      <c r="AE69">
+        <v>450</v>
+      </c>
+      <c r="AF69">
         <v>13.5</v>
       </c>
-      <c r="Y69">
-        <v>8.6</v>
-      </c>
-      <c r="Z69">
-        <v>10.5</v>
-      </c>
-      <c r="AA69">
-        <v>18.5</v>
-      </c>
-      <c r="AB69">
-        <v>17.5</v>
-      </c>
-      <c r="AC69">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD69">
-        <v>10</v>
-      </c>
-      <c r="AE69">
-        <v>19</v>
-      </c>
-      <c r="AF69">
-        <v>40</v>
-      </c>
       <c r="AG69">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AH69">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AI69">
-        <v>38</v>
+        <v>450</v>
       </c>
       <c r="AJ69">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AK69">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AL69">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AM69">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="AN69">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AO69">
-        <v>12</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
         <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F70">
-        <v>1.96</v>
+        <v>5</v>
       </c>
       <c r="G70">
+        <v>5.6</v>
+      </c>
+      <c r="H70">
+        <v>1.78</v>
+      </c>
+      <c r="I70">
+        <v>1.84</v>
+      </c>
+      <c r="J70">
+        <v>3.7</v>
+      </c>
+      <c r="K70">
+        <v>4.1</v>
+      </c>
+      <c r="L70">
+        <v>1.44</v>
+      </c>
+      <c r="M70">
+        <v>1.07</v>
+      </c>
+      <c r="N70">
+        <v>3.6</v>
+      </c>
+      <c r="O70">
+        <v>1.33</v>
+      </c>
+      <c r="P70">
+        <v>1.9</v>
+      </c>
+      <c r="Q70">
         <v>2.02</v>
       </c>
-      <c r="H70">
-        <v>4.9</v>
-      </c>
-      <c r="I70">
-        <v>5.4</v>
-      </c>
-      <c r="J70">
-        <v>3.2</v>
-      </c>
-      <c r="K70">
-        <v>3.4</v>
-      </c>
-      <c r="L70">
-        <v>1.66</v>
-      </c>
-      <c r="M70">
-        <v>1.14</v>
-      </c>
-      <c r="N70">
-        <v>2.58</v>
-      </c>
-      <c r="O70">
-        <v>1.59</v>
-      </c>
-      <c r="P70">
-        <v>1.51</v>
-      </c>
-      <c r="Q70">
-        <v>2.8</v>
-      </c>
       <c r="R70">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S70">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="T70">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="U70">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="V70">
-        <v>1.23</v>
+        <v>2.18</v>
       </c>
       <c r="W70">
-        <v>1.98</v>
+        <v>1.22</v>
       </c>
       <c r="X70">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="Y70">
+        <v>8.6</v>
+      </c>
+      <c r="Z70">
+        <v>10.5</v>
+      </c>
+      <c r="AA70">
+        <v>18.5</v>
+      </c>
+      <c r="AB70">
+        <v>17.5</v>
+      </c>
+      <c r="AC70">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD70">
+        <v>10</v>
+      </c>
+      <c r="AE70">
+        <v>19</v>
+      </c>
+      <c r="AF70">
+        <v>40</v>
+      </c>
+      <c r="AG70">
+        <v>21</v>
+      </c>
+      <c r="AH70">
+        <v>22</v>
+      </c>
+      <c r="AI70">
+        <v>38</v>
+      </c>
+      <c r="AJ70">
+        <v>130</v>
+      </c>
+      <c r="AK70">
+        <v>75</v>
+      </c>
+      <c r="AL70">
+        <v>80</v>
+      </c>
+      <c r="AM70">
+        <v>130</v>
+      </c>
+      <c r="AN70">
+        <v>85</v>
+      </c>
+      <c r="AO70">
         <v>12</v>
-      </c>
-      <c r="Z70">
-        <v>36</v>
-      </c>
-      <c r="AA70">
-        <v>990</v>
-      </c>
-      <c r="AB70">
-        <v>6.2</v>
-      </c>
-      <c r="AC70">
-        <v>7.8</v>
-      </c>
-      <c r="AD70">
-        <v>23</v>
-      </c>
-      <c r="AE70">
-        <v>1000</v>
-      </c>
-      <c r="AF70">
-        <v>10</v>
-      </c>
-      <c r="AG70">
-        <v>12</v>
-      </c>
-      <c r="AH70">
-        <v>32</v>
-      </c>
-      <c r="AI70">
-        <v>170</v>
-      </c>
-      <c r="AJ70">
-        <v>27</v>
-      </c>
-      <c r="AK70">
-        <v>36</v>
-      </c>
-      <c r="AL70">
-        <v>1000</v>
-      </c>
-      <c r="AM70">
-        <v>340</v>
-      </c>
-      <c r="AN70">
-        <v>26</v>
-      </c>
-      <c r="AO70">
-        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>81</v>
@@ -9894,368 +9891,368 @@
         <v>102</v>
       </c>
       <c r="D71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F71">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="G71">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="H71">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="I71">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="J71">
+        <v>3.2</v>
+      </c>
+      <c r="K71">
+        <v>3.4</v>
+      </c>
+      <c r="L71">
+        <v>1.66</v>
+      </c>
+      <c r="M71">
+        <v>1.14</v>
+      </c>
+      <c r="N71">
+        <v>2.6</v>
+      </c>
+      <c r="O71">
+        <v>1.59</v>
+      </c>
+      <c r="P71">
+        <v>1.51</v>
+      </c>
+      <c r="Q71">
         <v>2.84</v>
       </c>
-      <c r="K71">
-        <v>3.45</v>
-      </c>
-      <c r="L71">
-        <v>1.49</v>
-      </c>
-      <c r="M71">
-        <v>1.09</v>
-      </c>
-      <c r="N71">
-        <v>3.05</v>
-      </c>
-      <c r="O71">
-        <v>1.4</v>
-      </c>
-      <c r="P71">
-        <v>1.68</v>
-      </c>
-      <c r="Q71">
-        <v>2.22</v>
-      </c>
       <c r="R71">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S71">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="T71">
-        <v>1.87</v>
+        <v>2.4</v>
       </c>
       <c r="U71">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="V71">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="W71">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="X71">
+        <v>8</v>
+      </c>
+      <c r="Y71">
         <v>12.5</v>
       </c>
-      <c r="Y71">
-        <v>980</v>
-      </c>
       <c r="Z71">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA71">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AB71">
-        <v>10.5</v>
+        <v>6.2</v>
       </c>
       <c r="AC71">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AD71">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE71">
         <v>1000</v>
       </c>
       <c r="AF71">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG71">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH71">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AI71">
+        <v>170</v>
+      </c>
+      <c r="AJ71">
+        <v>27</v>
+      </c>
+      <c r="AK71">
+        <v>36</v>
+      </c>
+      <c r="AL71">
         <v>1000</v>
       </c>
-      <c r="AJ71">
-        <v>980</v>
-      </c>
-      <c r="AK71">
-        <v>980</v>
-      </c>
-      <c r="AL71">
-        <v>60</v>
-      </c>
       <c r="AM71">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN71">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AO71">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F72">
-        <v>1.72</v>
+        <v>2.12</v>
       </c>
       <c r="G72">
-        <v>1.73</v>
+        <v>2.36</v>
       </c>
       <c r="H72">
-        <v>6.6</v>
+        <v>3.9</v>
       </c>
       <c r="I72">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="J72">
-        <v>3.6</v>
+        <v>2.82</v>
       </c>
       <c r="K72">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L72">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="M72">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N72">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="O72">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="P72">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="Q72">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="R72">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="S72">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="T72">
-        <v>2.42</v>
+        <v>1.87</v>
       </c>
       <c r="U72">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="V72">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="W72">
-        <v>2.36</v>
+        <v>1.74</v>
       </c>
       <c r="X72">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="Y72">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Z72">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AA72">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB72">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="AC72">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AD72">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AE72">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF72">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AG72">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH72">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AI72">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ72">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AK72">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL72">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM72">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN72">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AO72">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
         <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F73">
-        <v>2.74</v>
+        <v>1.72</v>
       </c>
       <c r="G73">
-        <v>2.88</v>
+        <v>1.74</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="I73">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="J73">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K73">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="L73">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="M73">
         <v>1.12</v>
       </c>
       <c r="N73">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O73">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P73">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q73">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R73">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S73">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T73">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="U73">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="V73">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="W73">
-        <v>1.53</v>
+        <v>2.34</v>
       </c>
       <c r="X73">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y73">
+        <v>15.5</v>
+      </c>
+      <c r="Z73">
+        <v>50</v>
+      </c>
+      <c r="AA73">
+        <v>230</v>
+      </c>
+      <c r="AB73">
+        <v>6</v>
+      </c>
+      <c r="AC73">
+        <v>8.4</v>
+      </c>
+      <c r="AD73">
+        <v>28</v>
+      </c>
+      <c r="AE73">
+        <v>140</v>
+      </c>
+      <c r="AF73">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG73">
         <v>11</v>
       </c>
-      <c r="Y73">
-        <v>11</v>
-      </c>
-      <c r="Z73">
-        <v>24</v>
-      </c>
-      <c r="AA73">
+      <c r="AH73">
+        <v>32</v>
+      </c>
+      <c r="AI73">
         <v>150</v>
       </c>
-      <c r="AB73">
-        <v>8.6</v>
-      </c>
-      <c r="AC73">
-        <v>7.2</v>
-      </c>
-      <c r="AD73">
-        <v>14.5</v>
-      </c>
-      <c r="AE73">
-        <v>980</v>
-      </c>
-      <c r="AF73">
-        <v>32</v>
-      </c>
-      <c r="AG73">
-        <v>13.5</v>
-      </c>
-      <c r="AH73">
-        <v>40</v>
-      </c>
-      <c r="AI73">
-        <v>170</v>
-      </c>
       <c r="AJ73">
-        <v>900</v>
+        <v>17</v>
       </c>
       <c r="AK73">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL73">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AM73">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AN73">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AO73">
-        <v>70</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:41">
@@ -10266,13 +10263,13 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F74">
         <v>5.3</v>
